--- a/prot/356379915/Переход трубопровода через р. Енисей/OCR/1070.xlsx
+++ b/prot/356379915/Переход трубопровода через р. Енисей/OCR/1070.xlsx
@@ -3342,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="23" t="n">
-        <v>1.05567057416268</v>
+        <v>1.056917449162679</v>
       </c>
       <c r="E28" s="12" t="n"/>
       <c r="F28" s="31" t="n"/>
@@ -3356,43 +3356,43 @@
         <v>0.0125</v>
       </c>
       <c r="O28" s="81" t="n">
-        <v>1.348853616217558</v>
+        <v>1.3526024312312</v>
       </c>
       <c r="P28" s="81" t="n">
-        <v>0.5378766275631645</v>
+        <v>0.537371607047054</v>
       </c>
       <c r="Q28" s="81" t="n">
-        <v>0.9403638415410188</v>
+        <v>0.9435986541764178</v>
       </c>
       <c r="R28" s="81" t="n">
-        <v>0.5378766275631645</v>
+        <v>0.537371607047054</v>
       </c>
       <c r="S28" s="81" t="n">
-        <v>0.9403638415410188</v>
+        <v>0.9435986541764178</v>
       </c>
       <c r="T28" s="81" t="n">
-        <v>0.5378766275631645</v>
+        <v>0.537371607047054</v>
       </c>
       <c r="U28" s="81" t="n">
-        <v>0.9403638415410188</v>
+        <v>0.9435986541764178</v>
       </c>
       <c r="V28" s="81" t="n">
-        <v>0.8955334136451591</v>
+        <v>0.8970582149949988</v>
       </c>
       <c r="W28" s="81" t="n">
-        <v>0.925945470909304</v>
+        <v>0.9291767559544686</v>
       </c>
       <c r="X28" s="81" t="n">
-        <v>0.8955334136451591</v>
+        <v>0.8970582149949988</v>
       </c>
       <c r="Y28" s="81" t="n">
-        <v>0.925945470909304</v>
+        <v>0.9291767559544686</v>
       </c>
       <c r="Z28" s="81" t="n">
         <v>0.0125</v>
       </c>
       <c r="AA28" s="81" t="n">
-        <v>1.153159082934609</v>
+        <v>1.155296270434609</v>
       </c>
       <c r="AB28" s="81" t="n"/>
       <c r="AC28" s="81" t="n"/>
@@ -3410,10 +3410,10 @@
         <v>0.025</v>
       </c>
       <c r="C29" s="35" t="n">
-        <v>0.02110925039872408</v>
+        <v>0.02051550039872409</v>
       </c>
       <c r="D29" s="23" t="n">
-        <v>1.040894098883573</v>
+        <v>1.042556598883573</v>
       </c>
       <c r="E29" s="12" t="n"/>
       <c r="F29" s="31" t="n"/>
@@ -3427,34 +3427,34 @@
         <v>6.4</v>
       </c>
       <c r="O29" s="81" t="n">
-        <v>0.7312437831665943</v>
+        <v>0.7344829735075034</v>
       </c>
       <c r="P29" s="81" t="n">
         <v>0.4</v>
       </c>
       <c r="Q29" s="81" t="n">
-        <v>0.9403638415410188</v>
+        <v>0.9435986541764178</v>
       </c>
       <c r="R29" s="81" t="n">
         <v>0.4</v>
       </c>
       <c r="S29" s="81" t="n">
-        <v>0.948740250116602</v>
+        <v>0.9519075001843014</v>
       </c>
       <c r="T29" s="81" t="n">
         <v>0.4</v>
       </c>
       <c r="U29" s="81" t="n">
-        <v>0.9571166586921851</v>
+        <v>0.9602163461921851</v>
       </c>
       <c r="V29" s="81" t="n">
-        <v>0.8955334136451591</v>
+        <v>0.8970582149949988</v>
       </c>
       <c r="W29" s="81" t="n">
-        <v>0.925945470909304</v>
+        <v>0.9291767559544686</v>
       </c>
       <c r="X29" s="81" t="n">
-        <v>0.8955334136451591</v>
+        <v>0.8970582149949988</v>
       </c>
       <c r="Y29" s="81" t="n">
         <v>0</v>
@@ -3463,7 +3463,7 @@
         <v>4.00625</v>
       </c>
       <c r="AA29" s="81" t="n">
-        <v>0.8267805760964562</v>
+        <v>0.8305201683516804</v>
       </c>
       <c r="AB29" s="81" t="n"/>
       <c r="AC29" s="81" t="n"/>
@@ -3481,10 +3481,10 @@
         <v>0.05</v>
       </c>
       <c r="C30" s="35" t="n">
-        <v>0.02814566719829878</v>
+        <v>0.02735400053163212</v>
       </c>
       <c r="D30" s="23" t="n">
-        <v>1.053663516746412</v>
+        <v>1.055993204246412</v>
       </c>
       <c r="E30" s="12" t="n"/>
       <c r="F30" s="31" t="n"/>
@@ -3498,34 +3498,34 @@
         <v>8</v>
       </c>
       <c r="O30" s="81" t="n">
-        <v>0.7091520101735056</v>
+        <v>0.7123729713477479</v>
       </c>
       <c r="P30" s="81" t="n">
         <v>8</v>
       </c>
       <c r="Q30" s="81" t="n">
-        <v>0.9403638415410188</v>
+        <v>0.9435986541764178</v>
       </c>
       <c r="R30" s="81" t="n">
         <v>8</v>
       </c>
       <c r="S30" s="81" t="n">
-        <v>0.8640121240042862</v>
+        <v>0.8675953596511181</v>
       </c>
       <c r="T30" s="81" t="n">
         <v>8</v>
       </c>
       <c r="U30" s="81" t="n">
-        <v>0.7876604064675534</v>
+        <v>0.7915920651258184</v>
       </c>
       <c r="V30" s="81" t="n">
-        <v>0.8955334136451591</v>
+        <v>0.8970582149949988</v>
       </c>
       <c r="W30" s="81" t="n">
-        <v>0.925945470909304</v>
+        <v>0.9291767559544686</v>
       </c>
       <c r="X30" s="81" t="n">
-        <v>0.8955334136451591</v>
+        <v>0.8970582149949988</v>
       </c>
       <c r="Y30" s="81" t="n">
         <v>0</v>
@@ -3534,7 +3534,7 @@
         <v>8</v>
       </c>
       <c r="AA30" s="81" t="n">
-        <v>0.7876604064675531</v>
+        <v>0.791592065125819</v>
       </c>
       <c r="AB30" s="81" t="n"/>
       <c r="AC30" s="81" t="n"/>
@@ -3552,10 +3552,10 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="35" t="n">
-        <v>0.02206499202551832</v>
+        <v>0.02095561702551835</v>
       </c>
       <c r="D31" s="23" t="n">
-        <v>1.023916447368421</v>
+        <v>1.026525041118421</v>
       </c>
       <c r="E31" s="12" t="n"/>
       <c r="F31" s="31" t="n"/>
@@ -3595,10 +3595,10 @@
         <v>0.2</v>
       </c>
       <c r="C32" s="35" t="n">
-        <v>0.03623026315789472</v>
+        <v>0.03498807565789474</v>
       </c>
       <c r="D32" s="23" t="n">
-        <v>0.9963251435406699</v>
+        <v>0.9992323310406699</v>
       </c>
       <c r="E32" s="12" t="n"/>
       <c r="F32" s="31" t="n"/>
@@ -3638,10 +3638,10 @@
         <v>0.4</v>
       </c>
       <c r="C33" s="35" t="n">
-        <v>0.04936897926634768</v>
+        <v>0.04798460426634769</v>
       </c>
       <c r="D33" s="23" t="n">
-        <v>0.9571166586921851</v>
+        <v>0.9602163461921851</v>
       </c>
       <c r="E33" s="12" t="n"/>
       <c r="F33" s="31" t="n"/>
@@ -3681,10 +3681,10 @@
         <v>0.8</v>
       </c>
       <c r="C34" s="35" t="n">
-        <v>0.06803968633705475</v>
+        <v>0.06656364467038808</v>
       </c>
       <c r="D34" s="23" t="n">
-        <v>0.9100037001594897</v>
+        <v>0.9132237001594897</v>
       </c>
       <c r="G34" s="31" t="n"/>
       <c r="H34" s="31" t="n"/>
@@ -3722,10 +3722,10 @@
         <v>1.6</v>
       </c>
       <c r="C35" s="35" t="n">
-        <v>0.09047442849548112</v>
+        <v>0.08894109516214778</v>
       </c>
       <c r="D35" s="23" t="n">
-        <v>0.8555959794113384</v>
+        <v>0.8588696725931566</v>
       </c>
       <c r="E35" s="12" t="n"/>
       <c r="F35" s="73" t="inlineStr">
@@ -3738,7 +3738,7 @@
       <c r="I35" s="56" t="n"/>
       <c r="J35" s="57" t="n"/>
       <c r="K35" s="46" t="n">
-        <v>0.8955334136451591</v>
+        <v>0.8970582149949988</v>
       </c>
       <c r="L35" s="13" t="n"/>
       <c r="N35" s="81" t="n"/>
@@ -3771,10 +3771,10 @@
         <v>3.2</v>
       </c>
       <c r="C36" s="35" t="n">
-        <v>0.1163828669469818</v>
+        <v>0.1148239654318303</v>
       </c>
       <c r="D36" s="23" t="n">
-        <v>0.7954831013484125</v>
+        <v>0.7987583854393215</v>
       </c>
       <c r="E36" s="12" t="n"/>
       <c r="F36" s="67" t="inlineStr">
@@ -3820,10 +3820,10 @@
         <v>6.4</v>
       </c>
       <c r="C37" s="35" t="n">
-        <v>0.1450080469769465</v>
+        <v>0.1434483878860374</v>
       </c>
       <c r="D37" s="23" t="n">
-        <v>0.7312437831665943</v>
+        <v>0.7344829735075034</v>
       </c>
       <c r="E37" s="12" t="n"/>
       <c r="F37" s="67" t="inlineStr">
@@ -3836,7 +3836,7 @@
       <c r="I37" s="49" t="n"/>
       <c r="J37" s="50" t="n"/>
       <c r="K37" s="45" t="n">
-        <v>17.91066827290318</v>
+        <v>17.94116429989997</v>
       </c>
       <c r="L37" s="13" t="n"/>
       <c r="N37" s="81" t="n"/>
@@ -3869,10 +3869,10 @@
         <v>8</v>
       </c>
       <c r="C38" s="36" t="n">
-        <v>0.175598198492098</v>
+        <v>0.1740557269011889</v>
       </c>
       <c r="D38" s="25" t="n">
-        <v>0.7091520101735056</v>
+        <v>0.7123729713477479</v>
       </c>
       <c r="E38" s="12" t="n"/>
       <c r="F38" s="68" t="inlineStr">
@@ -3885,7 +3885,7 @@
       <c r="I38" s="69" t="n"/>
       <c r="J38" s="70" t="n"/>
       <c r="K38" s="47" t="n">
-        <v>0.8455334136451591</v>
+        <v>0.8470582149949988</v>
       </c>
       <c r="L38" s="13" t="n"/>
       <c r="N38" s="81" t="n"/>
@@ -4191,7 +4191,7 @@
         <v>0.8</v>
       </c>
       <c r="O45" s="91" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="P45" s="88" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0.8</v>
       </c>
       <c r="S45" s="88" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="T45" s="88" t="n"/>
       <c r="U45" s="81" t="n"/>
@@ -4229,10 +4229,10 @@
         <v>0.0125</v>
       </c>
       <c r="C46" s="35" t="n">
-        <v>0.1319328149920255</v>
+        <v>0.1282218774920256</v>
       </c>
       <c r="D46" s="37" t="n">
-        <v>0.1319328149920255</v>
+        <v>0.1282218774920256</v>
       </c>
       <c r="E46" s="31" t="n"/>
       <c r="F46" s="31" t="n"/>
@@ -4252,13 +4252,13 @@
         <v>0.8</v>
       </c>
       <c r="Q46" s="87" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="R46" s="88" t="n">
         <v>0.8</v>
       </c>
       <c r="S46" s="88" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="T46" s="88" t="n"/>
       <c r="U46" s="81" t="n"/>
@@ -4284,10 +4284,10 @@
         <v>0.025</v>
       </c>
       <c r="C47" s="35" t="n">
-        <v>0.1319328149920255</v>
+        <v>0.1282218774920255</v>
       </c>
       <c r="D47" s="37" t="n">
-        <v>0.2638656299840511</v>
+        <v>0.2564437549840511</v>
       </c>
       <c r="E47" s="31" t="n"/>
       <c r="F47" s="31" t="n"/>
@@ -4327,10 +4327,10 @@
         <v>0.05</v>
       </c>
       <c r="C48" s="35" t="n">
-        <v>-0.2280253189792672</v>
+        <v>-0.2399393814792664</v>
       </c>
       <c r="D48" s="37" t="n">
-        <v>0.03584031100478387</v>
+        <v>0.0165043735047847</v>
       </c>
       <c r="E48" s="31" t="n"/>
       <c r="F48" s="31" t="n"/>
@@ -4370,10 +4370,10 @@
         <v>0.1</v>
       </c>
       <c r="C49" s="35" t="n">
-        <v>1.06239533492823</v>
+        <v>1.05243439742823</v>
       </c>
       <c r="D49" s="37" t="n">
-        <v>1.098235645933014</v>
+        <v>1.068938770933014</v>
       </c>
       <c r="E49" s="31" t="n"/>
       <c r="F49" s="31" t="n"/>
@@ -4413,10 +4413,10 @@
         <v>0.2</v>
       </c>
       <c r="C50" s="35" t="n">
-        <v>1.970807416267945</v>
+        <v>1.949479291267943</v>
       </c>
       <c r="D50" s="37" t="n">
-        <v>3.069043062200958</v>
+        <v>3.018418062200957</v>
       </c>
       <c r="E50" s="31" t="n"/>
       <c r="F50" s="31" t="n"/>
@@ -4456,10 +4456,10 @@
         <v>0.4</v>
       </c>
       <c r="C51" s="35" t="n">
-        <v>5.60121212121212</v>
+        <v>5.57371212121212</v>
       </c>
       <c r="D51" s="37" t="n">
-        <v>8.670255183413078</v>
+        <v>8.592130183413078</v>
       </c>
       <c r="E51" s="31" t="n"/>
       <c r="F51" s="31" t="n"/>
@@ -4499,10 +4499,10 @@
         <v>0.8</v>
       </c>
       <c r="C52" s="35" t="n">
-        <v>13.46084529505583</v>
+        <v>13.42647029505582</v>
       </c>
       <c r="D52" s="37" t="n">
-        <v>22.13110047846891</v>
+        <v>22.0186004784689</v>
       </c>
       <c r="E52" s="31" t="n"/>
       <c r="F52" s="73" t="inlineStr">
@@ -4548,10 +4548,10 @@
         <v>1.6</v>
       </c>
       <c r="C53" s="35" t="n">
-        <v>31.09012614180079</v>
+        <v>31.05944432361898</v>
       </c>
       <c r="D53" s="37" t="n">
-        <v>53.2212266202697</v>
+        <v>53.07804480208787</v>
       </c>
       <c r="E53" s="31" t="n"/>
       <c r="F53" s="67" t="inlineStr">
@@ -4597,10 +4597,10 @@
         <v>3.2</v>
       </c>
       <c r="C54" s="35" t="n">
-        <v>68.70043207191532</v>
+        <v>68.69861389009714</v>
       </c>
       <c r="D54" s="37" t="n">
-        <v>121.921658692185</v>
+        <v>121.776658692185</v>
       </c>
       <c r="E54" s="31" t="n"/>
       <c r="F54" s="67" t="inlineStr">
@@ -4646,10 +4646,10 @@
         <v>6.4</v>
       </c>
       <c r="C55" s="36" t="n">
-        <v>146.8327272727273</v>
+        <v>146.9152272727274</v>
       </c>
       <c r="D55" s="38" t="n">
-        <v>268.7543859649123</v>
+        <v>268.6918859649124</v>
       </c>
       <c r="E55" s="31" t="n"/>
       <c r="F55" s="68" t="inlineStr">
@@ -4695,7 +4695,7 @@
         <v>8</v>
       </c>
       <c r="C56" s="31" t="n">
-        <v>75.74322169059013</v>
+        <v>75.80572169059002</v>
       </c>
       <c r="D56" s="31" t="n">
         <v>344.4976076555024</v>
